--- a/data/pca/factorExposure/factorExposure_2015-07-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02381792095979229</v>
+        <v>0.01500062032436053</v>
       </c>
       <c r="C2">
-        <v>0.02724734452413842</v>
+        <v>0.04794770173327486</v>
       </c>
       <c r="D2">
-        <v>0.135266474146082</v>
+        <v>0.1399092688602957</v>
       </c>
       <c r="E2">
-        <v>0.01308116135398404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0008323393796275543</v>
+      </c>
+      <c r="F2">
+        <v>-0.006744889165329063</v>
+      </c>
+      <c r="G2">
+        <v>-0.1117077639889698</v>
+      </c>
+      <c r="H2">
+        <v>-0.04692545557320469</v>
+      </c>
+      <c r="I2">
+        <v>0.04899554319969711</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.008212111637275029</v>
+        <v>-0.01208184075475266</v>
       </c>
       <c r="C3">
-        <v>0.03540276360721865</v>
+        <v>0.02111955527749019</v>
       </c>
       <c r="D3">
-        <v>0.01070938430818879</v>
+        <v>0.01162447337654061</v>
       </c>
       <c r="E3">
-        <v>0.03584043507969609</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.03039192578949784</v>
+      </c>
+      <c r="F3">
+        <v>-0.002352897300302191</v>
+      </c>
+      <c r="G3">
+        <v>-0.07074851798718548</v>
+      </c>
+      <c r="H3">
+        <v>-0.001788703194803974</v>
+      </c>
+      <c r="I3">
+        <v>-0.0918318452938808</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03813900365373597</v>
+        <v>0.02252842201270662</v>
       </c>
       <c r="C4">
-        <v>0.06967500132114916</v>
+        <v>0.0927546708278582</v>
       </c>
       <c r="D4">
-        <v>0.1395046321040779</v>
+        <v>0.1499012260448322</v>
       </c>
       <c r="E4">
-        <v>0.07358210040778407</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01306830424664316</v>
+      </c>
+      <c r="F4">
+        <v>-0.08886832006536516</v>
+      </c>
+      <c r="G4">
+        <v>-0.000860750905573423</v>
+      </c>
+      <c r="H4">
+        <v>-0.04649478066848804</v>
+      </c>
+      <c r="I4">
+        <v>0.02632315432156151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02697724787238518</v>
+        <v>0.02696732120241355</v>
       </c>
       <c r="C6">
-        <v>0.01552621103875486</v>
+        <v>0.03167817809651608</v>
       </c>
       <c r="D6">
-        <v>0.1436166185679192</v>
+        <v>0.1242449437567368</v>
       </c>
       <c r="E6">
-        <v>0.03542287602798377</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.03637425028925153</v>
+      </c>
+      <c r="F6">
+        <v>-0.04972328871414348</v>
+      </c>
+      <c r="G6">
+        <v>-0.04063650433132168</v>
+      </c>
+      <c r="H6">
+        <v>-0.0213680038067625</v>
+      </c>
+      <c r="I6">
+        <v>-0.02734407344673045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009192041306414532</v>
+        <v>0.006362004698282932</v>
       </c>
       <c r="C7">
-        <v>0.02479080079627966</v>
+        <v>0.0355968060957751</v>
       </c>
       <c r="D7">
-        <v>0.1153247696985211</v>
+        <v>0.1003654392457745</v>
       </c>
       <c r="E7">
-        <v>-0.005164574187522677</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.04488465851072338</v>
+      </c>
+      <c r="F7">
+        <v>-0.01044145777737414</v>
+      </c>
+      <c r="G7">
+        <v>-0.03212098726831999</v>
+      </c>
+      <c r="H7">
+        <v>-0.05918519107699239</v>
+      </c>
+      <c r="I7">
+        <v>-0.04370978621903459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.003271585225405929</v>
+        <v>-0.005462586645300886</v>
       </c>
       <c r="C8">
-        <v>0.03240234356261938</v>
+        <v>0.03845117274052548</v>
       </c>
       <c r="D8">
-        <v>0.08142394135340343</v>
+        <v>0.08106198739490283</v>
       </c>
       <c r="E8">
-        <v>0.03236737393270054</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01192651463800328</v>
+      </c>
+      <c r="F8">
+        <v>-0.04681648571308639</v>
+      </c>
+      <c r="G8">
+        <v>-0.09272078955269163</v>
+      </c>
+      <c r="H8">
+        <v>0.01220622964683893</v>
+      </c>
+      <c r="I8">
+        <v>-0.046648555308251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.035131340459515</v>
+        <v>0.01905851608858005</v>
       </c>
       <c r="C9">
-        <v>0.06332551153819203</v>
+        <v>0.08164304420039499</v>
       </c>
       <c r="D9">
-        <v>0.130162514426257</v>
+        <v>0.1234162772402327</v>
       </c>
       <c r="E9">
-        <v>0.05940526590416553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005700960625381604</v>
+      </c>
+      <c r="F9">
+        <v>-0.05302503551370947</v>
+      </c>
+      <c r="G9">
+        <v>0.002352876478455878</v>
+      </c>
+      <c r="H9">
+        <v>-0.04922223299412364</v>
+      </c>
+      <c r="I9">
+        <v>0.003976763115773278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1547834816592997</v>
+        <v>0.2193943717887524</v>
       </c>
       <c r="C10">
-        <v>-0.1756334227759334</v>
+        <v>-0.1166901470878783</v>
       </c>
       <c r="D10">
-        <v>0.01053841028573087</v>
+        <v>0.003395872298070664</v>
       </c>
       <c r="E10">
-        <v>0.04316579527802224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01964441153024537</v>
+      </c>
+      <c r="F10">
+        <v>-0.04716251830803455</v>
+      </c>
+      <c r="G10">
+        <v>0.01086683783777694</v>
+      </c>
+      <c r="H10">
+        <v>0.07002251875364246</v>
+      </c>
+      <c r="I10">
+        <v>-0.1110114055553375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02382506037988393</v>
+        <v>0.01212111155751238</v>
       </c>
       <c r="C11">
-        <v>0.04274759672624775</v>
+        <v>0.05380388269489382</v>
       </c>
       <c r="D11">
-        <v>0.05439140001041424</v>
+        <v>0.04740416759545777</v>
       </c>
       <c r="E11">
-        <v>-0.01379653311161377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01936992874169472</v>
+      </c>
+      <c r="F11">
+        <v>0.01270506833406037</v>
+      </c>
+      <c r="G11">
+        <v>-0.01201780021199699</v>
+      </c>
+      <c r="H11">
+        <v>-0.04489782847584302</v>
+      </c>
+      <c r="I11">
+        <v>0.01732236395038669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02514625651553597</v>
+        <v>0.01358749519155504</v>
       </c>
       <c r="C12">
-        <v>0.04144516920200333</v>
+        <v>0.04992067771731448</v>
       </c>
       <c r="D12">
-        <v>0.06676356410685123</v>
+        <v>0.05144189414959571</v>
       </c>
       <c r="E12">
-        <v>-0.0006419453566114229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01412849819514415</v>
+      </c>
+      <c r="F12">
+        <v>0.01740417877734005</v>
+      </c>
+      <c r="G12">
+        <v>-0.003972075182032722</v>
+      </c>
+      <c r="H12">
+        <v>-0.07310574431890603</v>
+      </c>
+      <c r="I12">
+        <v>0.00167183559120647</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.004811638410896498</v>
+        <v>0.005938273280469467</v>
       </c>
       <c r="C13">
-        <v>0.0284784508015347</v>
+        <v>0.04435146466788109</v>
       </c>
       <c r="D13">
-        <v>0.1537566584246359</v>
+        <v>0.1555376679036987</v>
       </c>
       <c r="E13">
-        <v>0.03663156179346951</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04182295673365184</v>
+      </c>
+      <c r="F13">
+        <v>-0.04102959422842811</v>
+      </c>
+      <c r="G13">
+        <v>-0.0520851351622421</v>
+      </c>
+      <c r="H13">
+        <v>-0.05576738637973386</v>
+      </c>
+      <c r="I13">
+        <v>-0.07872478422160398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.0008468617169052295</v>
+        <v>0.0008447985822468372</v>
       </c>
       <c r="C14">
-        <v>0.02241880180104393</v>
+        <v>0.02933848506626117</v>
       </c>
       <c r="D14">
-        <v>0.1097873534735576</v>
+        <v>0.1035620183849014</v>
       </c>
       <c r="E14">
-        <v>0.0239151604134523</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0218205142326405</v>
+      </c>
+      <c r="F14">
+        <v>-0.02455507937364522</v>
+      </c>
+      <c r="G14">
+        <v>-0.06093604099492968</v>
+      </c>
+      <c r="H14">
+        <v>-0.1015444275262591</v>
+      </c>
+      <c r="I14">
+        <v>-0.02550606157858264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.0006611227312448749</v>
+        <v>-0.001512708831087284</v>
       </c>
       <c r="C15">
-        <v>0.009238830072793568</v>
+        <v>0.0181847713778033</v>
       </c>
       <c r="D15">
-        <v>0.02142173841980906</v>
+        <v>0.05073173193679844</v>
       </c>
       <c r="E15">
-        <v>-0.006862655235535445</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.005745862770072429</v>
+      </c>
+      <c r="F15">
+        <v>-0.003814998207359018</v>
+      </c>
+      <c r="G15">
+        <v>-0.02400327707643849</v>
+      </c>
+      <c r="H15">
+        <v>-0.01133873447458274</v>
+      </c>
+      <c r="I15">
+        <v>0.01983092309698553</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02225425326149574</v>
+        <v>0.01269933081057982</v>
       </c>
       <c r="C16">
-        <v>0.03899057439401272</v>
+        <v>0.04816820517814004</v>
       </c>
       <c r="D16">
-        <v>0.06305029514092141</v>
+        <v>0.04836446512915092</v>
       </c>
       <c r="E16">
-        <v>-0.006099425260146677</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02051752154869844</v>
+      </c>
+      <c r="F16">
+        <v>0.006887912650635358</v>
+      </c>
+      <c r="G16">
+        <v>-0.003975007415971859</v>
+      </c>
+      <c r="H16">
+        <v>-0.05194316545454689</v>
+      </c>
+      <c r="I16">
+        <v>0.01343095210396599</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.005997939539580222</v>
+        <v>0.0007689623400834703</v>
       </c>
       <c r="C19">
-        <v>0.02313066109569313</v>
+        <v>0.02079220411720927</v>
       </c>
       <c r="D19">
-        <v>0.1354848214137329</v>
+        <v>0.0885241010790612</v>
       </c>
       <c r="E19">
-        <v>0.06909654238317597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.0203145878260785</v>
+      </c>
+      <c r="F19">
+        <v>-0.01116020820760747</v>
+      </c>
+      <c r="G19">
+        <v>-0.03485281811349296</v>
+      </c>
+      <c r="H19">
+        <v>-0.06474495138626141</v>
+      </c>
+      <c r="I19">
+        <v>-0.03451167561528621</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.00725333698561904</v>
+        <v>0.005631162411463572</v>
       </c>
       <c r="C20">
-        <v>0.03106077136846971</v>
+        <v>0.0408692868745137</v>
       </c>
       <c r="D20">
-        <v>0.09223466428692825</v>
+        <v>0.09985118999329921</v>
       </c>
       <c r="E20">
-        <v>0.04273015730797216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.000922701629520773</v>
+      </c>
+      <c r="F20">
+        <v>-0.03015350339090533</v>
+      </c>
+      <c r="G20">
+        <v>-0.03493989766944064</v>
+      </c>
+      <c r="H20">
+        <v>-0.05654488228926939</v>
+      </c>
+      <c r="I20">
+        <v>-0.01925057762482884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.008037841461196309</v>
+        <v>0.0014152260277725</v>
       </c>
       <c r="C21">
-        <v>0.03456726599201883</v>
+        <v>0.04319679990953448</v>
       </c>
       <c r="D21">
-        <v>0.1729918254411236</v>
+        <v>0.1404612773974416</v>
       </c>
       <c r="E21">
-        <v>0.07770011648453272</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.009149085893767487</v>
+      </c>
+      <c r="F21">
+        <v>-0.07170794579626508</v>
+      </c>
+      <c r="G21">
+        <v>-0.06954547439692031</v>
+      </c>
+      <c r="H21">
+        <v>-0.1459530544350381</v>
+      </c>
+      <c r="I21">
+        <v>-0.105297950434347</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.0008469708085044323</v>
+        <v>-0.006410218828943129</v>
       </c>
       <c r="C22">
-        <v>0.05801963741906109</v>
+        <v>0.07094203091620524</v>
       </c>
       <c r="D22">
-        <v>0.19620068647651</v>
+        <v>0.2407660720059547</v>
       </c>
       <c r="E22">
-        <v>-0.04961369217113297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.05007283011503601</v>
+      </c>
+      <c r="F22">
+        <v>-0.03787874100685591</v>
+      </c>
+      <c r="G22">
+        <v>-0.1768123675192523</v>
+      </c>
+      <c r="H22">
+        <v>0.4667996171868352</v>
+      </c>
+      <c r="I22">
+        <v>0.2143770225236991</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.0006307410901462747</v>
+        <v>-0.005949492214044732</v>
       </c>
       <c r="C23">
-        <v>0.05848586197482157</v>
+        <v>0.07181413373086394</v>
       </c>
       <c r="D23">
-        <v>0.1957599291242678</v>
+        <v>0.2414944365305345</v>
       </c>
       <c r="E23">
-        <v>-0.04938803564512969</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04712888383077857</v>
+      </c>
+      <c r="F23">
+        <v>-0.03707833995663914</v>
+      </c>
+      <c r="G23">
+        <v>-0.1754992200448095</v>
+      </c>
+      <c r="H23">
+        <v>0.4667267357286737</v>
+      </c>
+      <c r="I23">
+        <v>0.2155866783273662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02967412331652137</v>
+        <v>0.01365741456106557</v>
       </c>
       <c r="C24">
-        <v>0.05697715560461954</v>
+        <v>0.06526232760376455</v>
       </c>
       <c r="D24">
-        <v>0.07414313171997212</v>
+        <v>0.05686261836227758</v>
       </c>
       <c r="E24">
-        <v>-0.0001358141256897202</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02240817154671428</v>
+      </c>
+      <c r="F24">
+        <v>0.00524883932946862</v>
+      </c>
+      <c r="G24">
+        <v>-0.0169089826869886</v>
+      </c>
+      <c r="H24">
+        <v>-0.07522438077131419</v>
+      </c>
+      <c r="I24">
+        <v>0.01440870261178051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03333511244522605</v>
+        <v>0.01773276055653519</v>
       </c>
       <c r="C25">
-        <v>0.04888448008190529</v>
+        <v>0.06134630257117676</v>
       </c>
       <c r="D25">
-        <v>0.06792275922428534</v>
+        <v>0.05526979634389523</v>
       </c>
       <c r="E25">
-        <v>0.006660507409805142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.009603426570014289</v>
+      </c>
+      <c r="F25">
+        <v>0.008308422462989401</v>
+      </c>
+      <c r="G25">
+        <v>-0.005625605667747819</v>
+      </c>
+      <c r="H25">
+        <v>-0.04709027124959691</v>
+      </c>
+      <c r="I25">
+        <v>0.007406866929036911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.005131018783757866</v>
+        <v>0.00734818189466816</v>
       </c>
       <c r="C26">
-        <v>0.01631433652970831</v>
+        <v>0.02312365596599371</v>
       </c>
       <c r="D26">
-        <v>0.08138700649333436</v>
+        <v>0.07264105646366371</v>
       </c>
       <c r="E26">
-        <v>0.02581299468468308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02102853000648383</v>
+      </c>
+      <c r="F26">
+        <v>-0.02985881190896911</v>
+      </c>
+      <c r="G26">
+        <v>-0.03259643713046297</v>
+      </c>
+      <c r="H26">
+        <v>-0.07434948281862637</v>
+      </c>
+      <c r="I26">
+        <v>-0.05259586165185223</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2380032010018516</v>
+        <v>0.3155256075627835</v>
       </c>
       <c r="C28">
-        <v>-0.2241218662167635</v>
+        <v>-0.1336181028165845</v>
       </c>
       <c r="D28">
-        <v>0.01521913192416111</v>
+        <v>-0.004249421849998554</v>
       </c>
       <c r="E28">
-        <v>0.06212159928547608</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.03954853549908615</v>
+      </c>
+      <c r="F28">
+        <v>-0.03630054828652864</v>
+      </c>
+      <c r="G28">
+        <v>0.02420184122896454</v>
+      </c>
+      <c r="H28">
+        <v>0.03989468541815872</v>
+      </c>
+      <c r="I28">
+        <v>-0.07099389479501235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.002013640991107993</v>
+        <v>-0.0006789041986503413</v>
       </c>
       <c r="C29">
-        <v>0.02181464279358674</v>
+        <v>0.02971278868171085</v>
       </c>
       <c r="D29">
-        <v>0.1014128073744401</v>
+        <v>0.1004060157464178</v>
       </c>
       <c r="E29">
-        <v>0.01959871172332871</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.03505898571393226</v>
+      </c>
+      <c r="F29">
+        <v>-0.03288603437857438</v>
+      </c>
+      <c r="G29">
+        <v>-0.04802268665016751</v>
+      </c>
+      <c r="H29">
+        <v>-0.1005732835034821</v>
+      </c>
+      <c r="I29">
+        <v>-0.03145102607050711</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02497811796295671</v>
+        <v>0.01760417170596834</v>
       </c>
       <c r="C30">
-        <v>0.06080200107804497</v>
+        <v>0.08109408140270188</v>
       </c>
       <c r="D30">
-        <v>0.1660505268534586</v>
+        <v>0.1636437580243541</v>
       </c>
       <c r="E30">
-        <v>0.01266926694458664</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.04319925905252023</v>
+      </c>
+      <c r="F30">
+        <v>-0.03713849875271262</v>
+      </c>
+      <c r="G30">
+        <v>-0.03944099442591281</v>
+      </c>
+      <c r="H30">
+        <v>-0.03574924978068279</v>
+      </c>
+      <c r="I30">
+        <v>0.06452683725070567</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04350849197724335</v>
+        <v>0.01516221323788554</v>
       </c>
       <c r="C31">
-        <v>0.08267653951834181</v>
+        <v>0.08940005824604651</v>
       </c>
       <c r="D31">
-        <v>0.08053906924850769</v>
+        <v>0.04653720317560861</v>
       </c>
       <c r="E31">
-        <v>0.02674857316469974</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.007697378517510775</v>
+      </c>
+      <c r="F31">
+        <v>-0.01901938420191992</v>
+      </c>
+      <c r="G31">
+        <v>-0.02141072286757378</v>
+      </c>
+      <c r="H31">
+        <v>-0.04228911735245018</v>
+      </c>
+      <c r="I31">
+        <v>-0.06809779111649857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01870537836109562</v>
+        <v>0.01315419237588288</v>
       </c>
       <c r="C32">
-        <v>0.03638781769973963</v>
+        <v>0.04119070762880511</v>
       </c>
       <c r="D32">
-        <v>0.09752820178449224</v>
+        <v>0.1075476753727688</v>
       </c>
       <c r="E32">
-        <v>0.0631102693063561</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.006646268344054146</v>
+      </c>
+      <c r="F32">
+        <v>-0.04516231472783937</v>
+      </c>
+      <c r="G32">
+        <v>-0.02802114642019013</v>
+      </c>
+      <c r="H32">
+        <v>-0.03097636737385623</v>
+      </c>
+      <c r="I32">
+        <v>-0.05587840436548767</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0177746753891166</v>
+        <v>0.01101594424041738</v>
       </c>
       <c r="C33">
-        <v>0.04166420026402936</v>
+        <v>0.05574268772666722</v>
       </c>
       <c r="D33">
-        <v>0.1529327357056846</v>
+        <v>0.1326842912139835</v>
       </c>
       <c r="E33">
-        <v>0.04700042584089402</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01403931485443198</v>
+      </c>
+      <c r="F33">
+        <v>-0.02536469343900296</v>
+      </c>
+      <c r="G33">
+        <v>-0.02884864353878002</v>
+      </c>
+      <c r="H33">
+        <v>-0.05462071273332744</v>
+      </c>
+      <c r="I33">
+        <v>-0.01397233493172333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02936434473370706</v>
+        <v>0.01245955308672449</v>
       </c>
       <c r="C34">
-        <v>0.05769506500876589</v>
+        <v>0.06366315452144829</v>
       </c>
       <c r="D34">
-        <v>0.05383038891783013</v>
+        <v>0.03528227994917364</v>
       </c>
       <c r="E34">
-        <v>-0.04110647206705023</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02830403587127284</v>
+      </c>
+      <c r="F34">
+        <v>0.03757120261819331</v>
+      </c>
+      <c r="G34">
+        <v>-0.01201924958949313</v>
+      </c>
+      <c r="H34">
+        <v>-0.05764006870001565</v>
+      </c>
+      <c r="I34">
+        <v>-0.001902596573589312</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001005259219743583</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.004552673758074026</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.01468263345755264</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.002556132305947064</v>
+      </c>
+      <c r="F35">
+        <v>0.0001440044332160063</v>
+      </c>
+      <c r="G35">
+        <v>-0.0008053289484372052</v>
+      </c>
+      <c r="H35">
+        <v>-0.008140016350806651</v>
+      </c>
+      <c r="I35">
+        <v>0.003142647050626117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01090660137155963</v>
+        <v>0.0129821931659632</v>
       </c>
       <c r="C36">
-        <v>0.004639227862767072</v>
+        <v>0.01817650915047504</v>
       </c>
       <c r="D36">
-        <v>0.1002257451559096</v>
+        <v>0.08570041381479949</v>
       </c>
       <c r="E36">
-        <v>0.04743251410093537</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.00822361792983319</v>
+      </c>
+      <c r="F36">
+        <v>-0.03739149988468579</v>
+      </c>
+      <c r="G36">
+        <v>-0.02327884286220406</v>
+      </c>
+      <c r="H36">
+        <v>-0.06047357267035698</v>
+      </c>
+      <c r="I36">
+        <v>-0.02736929243712814</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.00986101305492908</v>
+        <v>0.01809618426967022</v>
       </c>
       <c r="C38">
-        <v>0.0111771669472304</v>
+        <v>0.01694906608836336</v>
       </c>
       <c r="D38">
-        <v>0.09605827327606511</v>
+        <v>0.08990422328755833</v>
       </c>
       <c r="E38">
-        <v>0.03060246338863698</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.01050048950193433</v>
+      </c>
+      <c r="F38">
+        <v>0.007054891610989026</v>
+      </c>
+      <c r="G38">
+        <v>-0.03986655130668402</v>
+      </c>
+      <c r="H38">
+        <v>-0.03991748226095226</v>
+      </c>
+      <c r="I38">
+        <v>-0.03461543850006218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.02308453523961105</v>
+        <v>0.009036460467096535</v>
       </c>
       <c r="C39">
-        <v>0.05772039634894364</v>
+        <v>0.0759663300545815</v>
       </c>
       <c r="D39">
-        <v>0.1176913884656425</v>
+        <v>0.1082539223062631</v>
       </c>
       <c r="E39">
-        <v>-0.01916705636386778</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04663060638389125</v>
+      </c>
+      <c r="F39">
+        <v>0.00578306209493055</v>
+      </c>
+      <c r="G39">
+        <v>-0.02194766706967234</v>
+      </c>
+      <c r="H39">
+        <v>-0.1011238888377501</v>
+      </c>
+      <c r="I39">
+        <v>0.04384065131912953</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01621046184430004</v>
+        <v>0.008329298160111739</v>
       </c>
       <c r="C40">
-        <v>0.0394764373384539</v>
+        <v>0.04172042476131298</v>
       </c>
       <c r="D40">
-        <v>0.1175188527238447</v>
+        <v>0.09913499517841656</v>
       </c>
       <c r="E40">
-        <v>0.03980047678938837</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02197302983163884</v>
+      </c>
+      <c r="F40">
+        <v>-0.01787386064351502</v>
+      </c>
+      <c r="G40">
+        <v>-0.2374734479364805</v>
+      </c>
+      <c r="H40">
+        <v>-0.01131457645049348</v>
+      </c>
+      <c r="I40">
+        <v>-0.2020069733659194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01540426589319727</v>
+        <v>0.01514232172211723</v>
       </c>
       <c r="C41">
-        <v>0.00644840759688945</v>
+        <v>0.01624214652605067</v>
       </c>
       <c r="D41">
-        <v>0.06982618245599874</v>
+        <v>0.05096004409687373</v>
       </c>
       <c r="E41">
-        <v>0.04668886684892416</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02177553632664215</v>
+      </c>
+      <c r="F41">
+        <v>-0.01583733697352528</v>
+      </c>
+      <c r="G41">
+        <v>-0.02410567850194789</v>
+      </c>
+      <c r="H41">
+        <v>-0.03297461396327078</v>
+      </c>
+      <c r="I41">
+        <v>-0.03385334294291021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.009047818426619336</v>
+        <v>0.007665901123296309</v>
       </c>
       <c r="C43">
-        <v>0.01072422384046852</v>
+        <v>0.01797416626201358</v>
       </c>
       <c r="D43">
-        <v>0.08745144493102976</v>
+        <v>0.06476375025959746</v>
       </c>
       <c r="E43">
-        <v>0.04302795748214681</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.007339955729498838</v>
+      </c>
+      <c r="F43">
+        <v>-0.01553395465506289</v>
+      </c>
+      <c r="G43">
+        <v>-0.03295224762081266</v>
+      </c>
+      <c r="H43">
+        <v>-0.06313095140094239</v>
+      </c>
+      <c r="I43">
+        <v>-0.03523453797838603</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0129168370213607</v>
+        <v>0.01087891987239811</v>
       </c>
       <c r="C44">
-        <v>0.03433046207346094</v>
+        <v>0.04564079099753504</v>
       </c>
       <c r="D44">
-        <v>0.1077144661065268</v>
+        <v>0.1135111130812003</v>
       </c>
       <c r="E44">
-        <v>0.04132353009209421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01785622324529363</v>
+      </c>
+      <c r="F44">
+        <v>-0.02691633033736829</v>
+      </c>
+      <c r="G44">
+        <v>-0.03676870409913779</v>
+      </c>
+      <c r="H44">
+        <v>-0.03734057166637733</v>
+      </c>
+      <c r="I44">
+        <v>0.02333405330617553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.009890044357254987</v>
+        <v>2.668718645684979e-05</v>
       </c>
       <c r="C46">
-        <v>0.0281803735005718</v>
+        <v>0.0390922762331042</v>
       </c>
       <c r="D46">
-        <v>0.1038365601916568</v>
+        <v>0.0863385987116651</v>
       </c>
       <c r="E46">
-        <v>0.02820492014807825</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02026215462577009</v>
+      </c>
+      <c r="F46">
+        <v>-0.02632987357689169</v>
+      </c>
+      <c r="G46">
+        <v>-0.04677909638667034</v>
+      </c>
+      <c r="H46">
+        <v>-0.1126894782093815</v>
+      </c>
+      <c r="I46">
+        <v>-0.02960411420132803</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08188875775356304</v>
+        <v>0.04219383857917263</v>
       </c>
       <c r="C47">
-        <v>0.1038372898966855</v>
+        <v>0.1194237319571945</v>
       </c>
       <c r="D47">
-        <v>0.06187081249204974</v>
+        <v>0.02966024466158938</v>
       </c>
       <c r="E47">
-        <v>0.03803421379899651</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01404785846069984</v>
+      </c>
+      <c r="F47">
+        <v>0.009497638004296521</v>
+      </c>
+      <c r="G47">
+        <v>0.03206097327637572</v>
+      </c>
+      <c r="H47">
+        <v>-0.03873740046316968</v>
+      </c>
+      <c r="I47">
+        <v>-0.1311857575996647</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.006441102559471472</v>
+        <v>0.008187029996908639</v>
       </c>
       <c r="C48">
-        <v>0.01737941316489255</v>
+        <v>0.02641049471104542</v>
       </c>
       <c r="D48">
-        <v>0.0962898949350345</v>
+        <v>0.08769995762600094</v>
       </c>
       <c r="E48">
-        <v>0.06835303689348507</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.007261904051089508</v>
+      </c>
+      <c r="F48">
+        <v>-0.04251417041328064</v>
+      </c>
+      <c r="G48">
+        <v>-0.03796565133450366</v>
+      </c>
+      <c r="H48">
+        <v>-0.08104810848603257</v>
+      </c>
+      <c r="I48">
+        <v>-0.02759351043750805</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04226734259858052</v>
+        <v>0.01785937257929573</v>
       </c>
       <c r="C50">
-        <v>0.06221337004549263</v>
+        <v>0.07411830667442279</v>
       </c>
       <c r="D50">
-        <v>0.07686915378935992</v>
+        <v>0.05129833979747833</v>
       </c>
       <c r="E50">
-        <v>0.02196184442192429</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0005138011998538306</v>
+      </c>
+      <c r="F50">
+        <v>-0.00893338482226017</v>
+      </c>
+      <c r="G50">
+        <v>-0.03447711374269176</v>
+      </c>
+      <c r="H50">
+        <v>-0.02244344065511351</v>
+      </c>
+      <c r="I50">
+        <v>-0.09958990779053485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.005732877893289696</v>
+        <v>0.004122165784764143</v>
       </c>
       <c r="C51">
-        <v>0.007284853483394175</v>
+        <v>0.01858797046457845</v>
       </c>
       <c r="D51">
-        <v>0.06591326539943737</v>
+        <v>0.06848804940616413</v>
       </c>
       <c r="E51">
-        <v>-0.005080544337883353</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03562587684781936</v>
+      </c>
+      <c r="F51">
+        <v>-0.03528855453162406</v>
+      </c>
+      <c r="G51">
+        <v>-0.04866092028990948</v>
+      </c>
+      <c r="H51">
+        <v>-0.03693532189653004</v>
+      </c>
+      <c r="I51">
+        <v>-0.008171851060510925</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1085713503911892</v>
+        <v>0.0671447384290474</v>
       </c>
       <c r="C53">
-        <v>0.1226686180380325</v>
+        <v>0.152326472898781</v>
       </c>
       <c r="D53">
-        <v>0.01717732997115934</v>
+        <v>-0.007914646390867941</v>
       </c>
       <c r="E53">
-        <v>0.07301807820941605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03968874573640845</v>
+      </c>
+      <c r="F53">
+        <v>-0.05979276007795152</v>
+      </c>
+      <c r="G53">
+        <v>-0.02657310802236795</v>
+      </c>
+      <c r="H53">
+        <v>-0.00353226701842121</v>
+      </c>
+      <c r="I53">
+        <v>-0.1005062359579837</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01789475702108057</v>
+        <v>0.01234247221235774</v>
       </c>
       <c r="C54">
-        <v>0.02276235138328018</v>
+        <v>0.03772005716058933</v>
       </c>
       <c r="D54">
-        <v>0.1120416275764712</v>
+        <v>0.08830143696289969</v>
       </c>
       <c r="E54">
-        <v>0.01632665538289103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.01155971892778792</v>
+      </c>
+      <c r="F54">
+        <v>0.0001350446643595993</v>
+      </c>
+      <c r="G54">
+        <v>-0.05154288458452945</v>
+      </c>
+      <c r="H54">
+        <v>-0.06825920041120775</v>
+      </c>
+      <c r="I54">
+        <v>-0.05242383701369942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09600167258001653</v>
+        <v>0.05283557882140261</v>
       </c>
       <c r="C55">
-        <v>0.1013500912929015</v>
+        <v>0.1263386894673055</v>
       </c>
       <c r="D55">
-        <v>0.005720822152208075</v>
+        <v>-0.01868774567914216</v>
       </c>
       <c r="E55">
-        <v>0.02755043266936416</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.003106267484361467</v>
+      </c>
+      <c r="F55">
+        <v>-0.02564093818189779</v>
+      </c>
+      <c r="G55">
+        <v>-0.03712359649887046</v>
+      </c>
+      <c r="H55">
+        <v>0.009046077772616479</v>
+      </c>
+      <c r="I55">
+        <v>-0.08378622875973794</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1359323934586068</v>
+        <v>0.07616135005690552</v>
       </c>
       <c r="C56">
-        <v>0.129517800209817</v>
+        <v>0.1772624437010223</v>
       </c>
       <c r="D56">
-        <v>-0.001233276317715292</v>
+        <v>-0.02319985128055244</v>
       </c>
       <c r="E56">
-        <v>0.03408274917083934</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0331471479320417</v>
+      </c>
+      <c r="F56">
+        <v>-0.02128421982106631</v>
+      </c>
+      <c r="G56">
+        <v>-0.04697867724835046</v>
+      </c>
+      <c r="H56">
+        <v>0.02869072780312511</v>
+      </c>
+      <c r="I56">
+        <v>-0.08164200243431047</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.01687671976702546</v>
+        <v>-0.002841547302129415</v>
       </c>
       <c r="C58">
-        <v>0.02160596229374942</v>
+        <v>0.04483261361402927</v>
       </c>
       <c r="D58">
-        <v>0.20676328436739</v>
+        <v>0.2783232127587157</v>
       </c>
       <c r="E58">
-        <v>0.07223342986052436</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.0288092291047563</v>
+      </c>
+      <c r="F58">
+        <v>-0.09597438290183277</v>
+      </c>
+      <c r="G58">
+        <v>-0.07636599233754018</v>
+      </c>
+      <c r="H58">
+        <v>0.1527697762199062</v>
+      </c>
+      <c r="I58">
+        <v>0.08676270054949793</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1694915701327902</v>
+        <v>0.2385294315668294</v>
       </c>
       <c r="C59">
-        <v>-0.1591058389813282</v>
+        <v>-0.09197589862333813</v>
       </c>
       <c r="D59">
-        <v>0.04949697553108538</v>
+        <v>0.06219870784773876</v>
       </c>
       <c r="E59">
-        <v>0.04347252426071171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02845626169383903</v>
+      </c>
+      <c r="F59">
+        <v>-0.01593464004640434</v>
+      </c>
+      <c r="G59">
+        <v>0.002763351212030244</v>
+      </c>
+      <c r="H59">
+        <v>0.02266000243877421</v>
+      </c>
+      <c r="I59">
+        <v>-0.02514097492300359</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2020699171374276</v>
+        <v>0.1591605952263269</v>
       </c>
       <c r="C60">
-        <v>0.1000822035847023</v>
+        <v>0.1672795074352517</v>
       </c>
       <c r="D60">
-        <v>0.1613173495976196</v>
+        <v>0.08192737203824003</v>
       </c>
       <c r="E60">
-        <v>-0.2571488611352966</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2457992977418725</v>
+      </c>
+      <c r="F60">
+        <v>0.1657747532184443</v>
+      </c>
+      <c r="G60">
+        <v>0.2509691363204459</v>
+      </c>
+      <c r="H60">
+        <v>0.1126041024790246</v>
+      </c>
+      <c r="I60">
+        <v>0.02341028689439082</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0344658218014462</v>
+        <v>0.01756784814361603</v>
       </c>
       <c r="C61">
-        <v>0.05540628011759653</v>
+        <v>0.07208473414094825</v>
       </c>
       <c r="D61">
-        <v>0.1119674252271487</v>
+        <v>0.08674788975496998</v>
       </c>
       <c r="E61">
-        <v>-0.00100970206531804</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03720953135839165</v>
+      </c>
+      <c r="F61">
+        <v>0.01597665796184323</v>
+      </c>
+      <c r="G61">
+        <v>-0.004903481459362959</v>
+      </c>
+      <c r="H61">
+        <v>-0.09615453316340809</v>
+      </c>
+      <c r="I61">
+        <v>-0.006825091011639918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01066932205260367</v>
+        <v>0.004483942601004834</v>
       </c>
       <c r="C63">
-        <v>0.02514172519798019</v>
+        <v>0.03571639886976802</v>
       </c>
       <c r="D63">
-        <v>0.09466249367768323</v>
+        <v>0.07231894984573659</v>
       </c>
       <c r="E63">
-        <v>0.01481172181977404</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02221346652776865</v>
+      </c>
+      <c r="F63">
+        <v>-0.02180093667089387</v>
+      </c>
+      <c r="G63">
+        <v>-0.03140747415179711</v>
+      </c>
+      <c r="H63">
+        <v>-0.0528738702222192</v>
+      </c>
+      <c r="I63">
+        <v>-0.009292935000608609</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06357934612938845</v>
+        <v>0.02990610033130166</v>
       </c>
       <c r="C64">
-        <v>0.08162410157718805</v>
+        <v>0.103118481701628</v>
       </c>
       <c r="D64">
-        <v>0.04753057703564827</v>
+        <v>0.03585629713289896</v>
       </c>
       <c r="E64">
-        <v>0.01179047155897905</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.03091563709794571</v>
+      </c>
+      <c r="F64">
+        <v>-0.02149306600773501</v>
+      </c>
+      <c r="G64">
+        <v>0.0257123266835164</v>
+      </c>
+      <c r="H64">
+        <v>-0.1156921467276858</v>
+      </c>
+      <c r="I64">
+        <v>0.03694612453123215</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02727054062838734</v>
+        <v>0.0228311166020536</v>
       </c>
       <c r="C65">
-        <v>0.01709878288160654</v>
+        <v>0.03678473437688001</v>
       </c>
       <c r="D65">
-        <v>0.1177270748202477</v>
+        <v>0.106926481797328</v>
       </c>
       <c r="E65">
-        <v>0.00241196672113666</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.03788604171446392</v>
+      </c>
+      <c r="F65">
+        <v>-0.005525558259866115</v>
+      </c>
+      <c r="G65">
+        <v>-0.002388257281333842</v>
+      </c>
+      <c r="H65">
+        <v>-0.01055915680789568</v>
+      </c>
+      <c r="I65">
+        <v>-0.0207926553722058</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.0272402732292757</v>
+        <v>0.01115277934538316</v>
       </c>
       <c r="C66">
-        <v>0.06364401743396363</v>
+        <v>0.08817322941344338</v>
       </c>
       <c r="D66">
-        <v>0.1226868900097253</v>
+        <v>0.1327436351851146</v>
       </c>
       <c r="E66">
-        <v>-0.02201305404766925</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03893694571779251</v>
+      </c>
+      <c r="F66">
+        <v>0.0157108493873576</v>
+      </c>
+      <c r="G66">
+        <v>-0.01626340721774571</v>
+      </c>
+      <c r="H66">
+        <v>-0.05818884739057562</v>
+      </c>
+      <c r="I66">
+        <v>0.05806387295259956</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02925532121454373</v>
+        <v>0.02841906255812984</v>
       </c>
       <c r="C67">
-        <v>0.02231556111273118</v>
+        <v>0.02976865407910381</v>
       </c>
       <c r="D67">
-        <v>0.05143721383470169</v>
+        <v>0.03940241779322537</v>
       </c>
       <c r="E67">
-        <v>0.005948851988500333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.00355092667345925</v>
+      </c>
+      <c r="F67">
+        <v>0.02792131468409475</v>
+      </c>
+      <c r="G67">
+        <v>-0.03211800677676682</v>
+      </c>
+      <c r="H67">
+        <v>-0.05372212847698766</v>
+      </c>
+      <c r="I67">
+        <v>-0.02571892708421073</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2069935662927573</v>
+        <v>0.2658301693019954</v>
       </c>
       <c r="C68">
-        <v>-0.173047997022826</v>
+        <v>-0.0917188534375864</v>
       </c>
       <c r="D68">
-        <v>0.03575810183106872</v>
+        <v>0.02998625246296041</v>
       </c>
       <c r="E68">
-        <v>0.009221513450301212</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005617104338692079</v>
+      </c>
+      <c r="F68">
+        <v>-0.0285489228293732</v>
+      </c>
+      <c r="G68">
+        <v>-0.04786217978390563</v>
+      </c>
+      <c r="H68">
+        <v>0.0550222229993195</v>
+      </c>
+      <c r="I68">
+        <v>-0.08951423080777918</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06428783937315863</v>
+        <v>0.02871022474920738</v>
       </c>
       <c r="C69">
-        <v>0.1134993193083373</v>
+        <v>0.1203142991524337</v>
       </c>
       <c r="D69">
-        <v>0.08650643216939628</v>
+        <v>0.04540073972047544</v>
       </c>
       <c r="E69">
-        <v>0.01842117361399172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.005454018741589873</v>
+      </c>
+      <c r="F69">
+        <v>0.01144825359601828</v>
+      </c>
+      <c r="G69">
+        <v>0.01419811513863437</v>
+      </c>
+      <c r="H69">
+        <v>-0.04289109815778523</v>
+      </c>
+      <c r="I69">
+        <v>-0.07848365009230286</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2072176343979558</v>
+        <v>0.2654759553482845</v>
       </c>
       <c r="C71">
-        <v>-0.1885280056770513</v>
+        <v>-0.10539386896665</v>
       </c>
       <c r="D71">
-        <v>0.03072145307166093</v>
+        <v>0.02266432678120198</v>
       </c>
       <c r="E71">
-        <v>0.02310010426062055</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.007251501752551901</v>
+      </c>
+      <c r="F71">
+        <v>-0.02188611875943003</v>
+      </c>
+      <c r="G71">
+        <v>-0.04735980952255195</v>
+      </c>
+      <c r="H71">
+        <v>0.01504908804430993</v>
+      </c>
+      <c r="I71">
+        <v>-0.1530841051355796</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1075218223794648</v>
+        <v>0.06585329190306381</v>
       </c>
       <c r="C72">
-        <v>0.07119840527023484</v>
+        <v>0.11953519139176</v>
       </c>
       <c r="D72">
-        <v>0.09419135826892591</v>
+        <v>0.06747906263849844</v>
       </c>
       <c r="E72">
-        <v>-0.05028315220148152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.08969030769870591</v>
+      </c>
+      <c r="F72">
+        <v>0.01021772934101371</v>
+      </c>
+      <c r="G72">
+        <v>-0.00892925773948141</v>
+      </c>
+      <c r="H72">
+        <v>-0.05215745134964965</v>
+      </c>
+      <c r="I72">
+        <v>0.02430695275126251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1782347029316411</v>
+        <v>0.1425972383916516</v>
       </c>
       <c r="C73">
-        <v>0.04591816599021387</v>
+        <v>0.123947279372979</v>
       </c>
       <c r="D73">
-        <v>0.2118340092255769</v>
+        <v>0.08628262707028204</v>
       </c>
       <c r="E73">
-        <v>-0.4216837260201808</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.425023060489445</v>
+      </c>
+      <c r="F73">
+        <v>0.2471820750636009</v>
+      </c>
+      <c r="G73">
+        <v>0.4359462595153663</v>
+      </c>
+      <c r="H73">
+        <v>0.02584521854586246</v>
+      </c>
+      <c r="I73">
+        <v>0.0223077255655547</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1072302380000894</v>
+        <v>0.06003953463299268</v>
       </c>
       <c r="C74">
-        <v>0.1073443773250354</v>
+        <v>0.137144469799322</v>
       </c>
       <c r="D74">
-        <v>-0.02152031366969621</v>
+        <v>-0.03716963501334301</v>
       </c>
       <c r="E74">
-        <v>0.05432735069174808</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01953625959868282</v>
+      </c>
+      <c r="F74">
+        <v>-0.05085520144350492</v>
+      </c>
+      <c r="G74">
+        <v>-0.0009099902682859858</v>
+      </c>
+      <c r="H74">
+        <v>0.01844880373723664</v>
+      </c>
+      <c r="I74">
+        <v>-0.09250652864200194</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2455064032800531</v>
+        <v>0.1450476988515415</v>
       </c>
       <c r="C75">
-        <v>0.1879991222631283</v>
+        <v>0.259881830942302</v>
       </c>
       <c r="D75">
-        <v>-0.105673315319317</v>
+        <v>-0.1318317672308292</v>
       </c>
       <c r="E75">
-        <v>0.01578607391774534</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08181808532733352</v>
+      </c>
+      <c r="F75">
+        <v>0.03451514924285846</v>
+      </c>
+      <c r="G75">
+        <v>-0.06826266361745577</v>
+      </c>
+      <c r="H75">
+        <v>0.02533528037135792</v>
+      </c>
+      <c r="I75">
+        <v>-0.05168252101615949</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1466521032781725</v>
+        <v>0.08013647503495565</v>
       </c>
       <c r="C76">
-        <v>0.1352418310384074</v>
+        <v>0.1783909521176452</v>
       </c>
       <c r="D76">
-        <v>0.01143282944499139</v>
+        <v>-0.02516391535944057</v>
       </c>
       <c r="E76">
-        <v>0.0410123309285344</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0329274349755605</v>
+      </c>
+      <c r="F76">
+        <v>-0.01370473562897898</v>
+      </c>
+      <c r="G76">
+        <v>-0.06077428375579275</v>
+      </c>
+      <c r="H76">
+        <v>-0.01082415138783105</v>
+      </c>
+      <c r="I76">
+        <v>-0.08425028033538447</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02847873291046035</v>
+        <v>0.04047765045444745</v>
       </c>
       <c r="C77">
-        <v>0.08341590584192934</v>
+        <v>0.09391532436542867</v>
       </c>
       <c r="D77">
-        <v>0.06908836925458677</v>
+        <v>0.267480908658157</v>
       </c>
       <c r="E77">
-        <v>0.3159636997260452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.7261971806267022</v>
+      </c>
+      <c r="F77">
+        <v>0.3628661318900427</v>
+      </c>
+      <c r="G77">
+        <v>0.3423180233805933</v>
+      </c>
+      <c r="H77">
+        <v>0.1930679207988238</v>
+      </c>
+      <c r="I77">
+        <v>-0.1041588559201429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02551602387924081</v>
+        <v>0.01855638763493354</v>
       </c>
       <c r="C78">
-        <v>0.07179272252586089</v>
+        <v>0.08435744771587415</v>
       </c>
       <c r="D78">
-        <v>0.1611642807422605</v>
+        <v>0.1409348693163812</v>
       </c>
       <c r="E78">
-        <v>0.02532910875343855</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.0461974364504192</v>
+      </c>
+      <c r="F78">
+        <v>-0.03977873080856181</v>
+      </c>
+      <c r="G78">
+        <v>-0.01699379617555277</v>
+      </c>
+      <c r="H78">
+        <v>-0.02066831153295778</v>
+      </c>
+      <c r="I78">
+        <v>0.002646193492957075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.08045948178361612</v>
+        <v>0.04155113169160172</v>
       </c>
       <c r="C79">
-        <v>0.1456069134311593</v>
+        <v>0.1701083867548758</v>
       </c>
       <c r="D79">
-        <v>-0.1052679754466674</v>
+        <v>-0.05737754288472977</v>
       </c>
       <c r="E79">
-        <v>0.6100327005379107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.125993345706034</v>
+      </c>
+      <c r="F79">
+        <v>-0.7857689509846684</v>
+      </c>
+      <c r="G79">
+        <v>0.4690369409062082</v>
+      </c>
+      <c r="H79">
+        <v>0.07471693712119261</v>
+      </c>
+      <c r="I79">
+        <v>0.1252212142164493</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.009795411972103948</v>
+        <v>0.001852113517484409</v>
       </c>
       <c r="C80">
-        <v>0.0494054574993112</v>
+        <v>0.05114628302316168</v>
       </c>
       <c r="D80">
-        <v>0.0471595571741809</v>
+        <v>0.04684641929909964</v>
       </c>
       <c r="E80">
-        <v>0.003754463408444841</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.01719352336965929</v>
+      </c>
+      <c r="F80">
+        <v>-0.011803464772006</v>
+      </c>
+      <c r="G80">
+        <v>-0.05647575471769234</v>
+      </c>
+      <c r="H80">
+        <v>-0.001202583103059657</v>
+      </c>
+      <c r="I80">
+        <v>-0.04957371530749524</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1258921743943247</v>
+        <v>0.06506702561756939</v>
       </c>
       <c r="C81">
-        <v>0.1309466782128892</v>
+        <v>0.162741906857529</v>
       </c>
       <c r="D81">
-        <v>-0.06683955424932601</v>
+        <v>-0.07561672512850405</v>
       </c>
       <c r="E81">
-        <v>0.09661167983283309</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.07414487015641158</v>
+      </c>
+      <c r="F81">
+        <v>-0.05115124857208296</v>
+      </c>
+      <c r="G81">
+        <v>-0.07105150604643944</v>
+      </c>
+      <c r="H81">
+        <v>-0.03635544067488377</v>
+      </c>
+      <c r="I81">
+        <v>-0.1362267520647943</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2537620478809597</v>
+        <v>0.1240795588481671</v>
       </c>
       <c r="C82">
-        <v>0.2885257684028719</v>
+        <v>0.3213020887894337</v>
       </c>
       <c r="D82">
-        <v>-0.2155058339298133</v>
+        <v>-0.2251077023504437</v>
       </c>
       <c r="E82">
-        <v>-0.07879901946193121</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.04410036389781154</v>
+      </c>
+      <c r="F82">
+        <v>0.1124837083849316</v>
+      </c>
+      <c r="G82">
+        <v>-0.07827746694593209</v>
+      </c>
+      <c r="H82">
+        <v>-0.06015499554519126</v>
+      </c>
+      <c r="I82">
+        <v>-0.06944598494311141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.006194320371833517</v>
+        <v>-0.005058052841661224</v>
       </c>
       <c r="C83">
-        <v>0.05673389032421891</v>
+        <v>0.0433056281420325</v>
       </c>
       <c r="D83">
-        <v>0.03236197989981448</v>
+        <v>0.04715830172229884</v>
       </c>
       <c r="E83">
-        <v>0.07443984226261983</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.1008987981455996</v>
+      </c>
+      <c r="F83">
+        <v>-0.01036748011362617</v>
+      </c>
+      <c r="G83">
+        <v>-0.05676792131993968</v>
+      </c>
+      <c r="H83">
+        <v>-0.06676175676462756</v>
+      </c>
+      <c r="I83">
+        <v>-0.002785207227020556</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0001315211083313261</v>
+        <v>0.001067294728301087</v>
       </c>
       <c r="C84">
-        <v>0.0004594812187246044</v>
+        <v>0.0130263180229249</v>
       </c>
       <c r="D84">
-        <v>0.0003050154553347123</v>
+        <v>0.03747377402608018</v>
       </c>
       <c r="E84">
-        <v>0.0002151664700988958</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005223946729991032</v>
+      </c>
+      <c r="F84">
+        <v>-0.01845859116054257</v>
+      </c>
+      <c r="G84">
+        <v>-0.03648772345178237</v>
+      </c>
+      <c r="H84">
+        <v>0.01474093245329834</v>
+      </c>
+      <c r="I84">
+        <v>0.03213370905792685</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1513052383213937</v>
+        <v>0.08116761213365763</v>
       </c>
       <c r="C85">
-        <v>0.1383186157761555</v>
+        <v>0.1861950463078523</v>
       </c>
       <c r="D85">
-        <v>-0.0473267012749389</v>
+        <v>-0.08784930986393319</v>
       </c>
       <c r="E85">
-        <v>0.004840619748142174</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.001305999178504017</v>
+      </c>
+      <c r="F85">
+        <v>-0.07431446886220687</v>
+      </c>
+      <c r="G85">
+        <v>-0.01559923965109706</v>
+      </c>
+      <c r="H85">
+        <v>0.01151218345799249</v>
+      </c>
+      <c r="I85">
+        <v>-0.08960181209227264</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01600469358421706</v>
+        <v>0.0122701238783243</v>
       </c>
       <c r="C86">
-        <v>0.02531165060853204</v>
+        <v>0.03285014538303606</v>
       </c>
       <c r="D86">
-        <v>0.08434179212283346</v>
+        <v>0.1013469239414971</v>
       </c>
       <c r="E86">
-        <v>0.06791733860851189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04499181841248869</v>
+      </c>
+      <c r="F86">
+        <v>0.0145098170846517</v>
+      </c>
+      <c r="G86">
+        <v>-0.01507736159062585</v>
+      </c>
+      <c r="H86">
+        <v>-0.001711564884759638</v>
+      </c>
+      <c r="I86">
+        <v>-0.1291502556837198</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02229584316996277</v>
+        <v>0.0189840696995387</v>
       </c>
       <c r="C87">
-        <v>0.02161293387863777</v>
+        <v>0.04910116949313818</v>
       </c>
       <c r="D87">
-        <v>0.12264375319625</v>
+        <v>0.1461457190411661</v>
       </c>
       <c r="E87">
-        <v>0.05782339298075496</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01140806252061939</v>
+      </c>
+      <c r="F87">
+        <v>-0.04522931334630126</v>
+      </c>
+      <c r="G87">
+        <v>-0.07335669671261945</v>
+      </c>
+      <c r="H87">
+        <v>-0.02318661603787305</v>
+      </c>
+      <c r="I87">
+        <v>0.09000310596555026</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05702389068765353</v>
+        <v>0.03521389252941219</v>
       </c>
       <c r="C88">
-        <v>0.04467075445432245</v>
+        <v>0.06427522248567362</v>
       </c>
       <c r="D88">
-        <v>0.04861066927542641</v>
+        <v>0.01484917015393381</v>
       </c>
       <c r="E88">
-        <v>0.03360462303321232</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01948310312123618</v>
+      </c>
+      <c r="F88">
+        <v>-0.02906483015639967</v>
+      </c>
+      <c r="G88">
+        <v>0.005445618007109168</v>
+      </c>
+      <c r="H88">
+        <v>-0.03265363922554254</v>
+      </c>
+      <c r="I88">
+        <v>-0.04523170757711299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3089669877901399</v>
+        <v>0.3985189701272341</v>
       </c>
       <c r="C89">
-        <v>-0.341212321900808</v>
+        <v>-0.1974938793573686</v>
       </c>
       <c r="D89">
-        <v>0.03648630542395181</v>
+        <v>0.02813326509617704</v>
       </c>
       <c r="E89">
-        <v>0.1318384555773298</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04096223592390622</v>
+      </c>
+      <c r="F89">
+        <v>-0.07175372679768335</v>
+      </c>
+      <c r="G89">
+        <v>-0.1142074574841949</v>
+      </c>
+      <c r="H89">
+        <v>-0.1774293142552575</v>
+      </c>
+      <c r="I89">
+        <v>0.286799294838199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2458410492958503</v>
+        <v>0.3106935460148683</v>
       </c>
       <c r="C90">
-        <v>-0.251379703621213</v>
+        <v>-0.1351955746619295</v>
       </c>
       <c r="D90">
-        <v>0.03175136660076511</v>
+        <v>0.0351581761585965</v>
       </c>
       <c r="E90">
-        <v>0.006899631883678277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01104938146180944</v>
+      </c>
+      <c r="F90">
+        <v>0.01544465321077924</v>
+      </c>
+      <c r="G90">
+        <v>-0.04988352489216191</v>
+      </c>
+      <c r="H90">
+        <v>0.03121537194296506</v>
+      </c>
+      <c r="I90">
+        <v>-0.04843950221370862</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1613257097549692</v>
+        <v>0.08470499270278366</v>
       </c>
       <c r="C91">
-        <v>0.1775259033069776</v>
+        <v>0.2061095156549642</v>
       </c>
       <c r="D91">
-        <v>-0.1049009987105308</v>
+        <v>-0.1111128675678141</v>
       </c>
       <c r="E91">
-        <v>0.1144961592178994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.0773397458603467</v>
+      </c>
+      <c r="F91">
+        <v>-0.07880056514165247</v>
+      </c>
+      <c r="G91">
+        <v>-0.01957459041009149</v>
+      </c>
+      <c r="H91">
+        <v>0.01370753766427425</v>
+      </c>
+      <c r="I91">
+        <v>-0.1252670340905226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2186344881926431</v>
+        <v>0.3158722077764593</v>
       </c>
       <c r="C92">
-        <v>-0.2597719377116028</v>
+        <v>-0.1700206346349062</v>
       </c>
       <c r="D92">
-        <v>-0.04787628263168583</v>
+        <v>-0.004054557985565714</v>
       </c>
       <c r="E92">
-        <v>0.07029591991726325</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.08214158813561261</v>
+      </c>
+      <c r="F92">
+        <v>-0.02316692550953073</v>
+      </c>
+      <c r="G92">
+        <v>-0.02222420919018591</v>
+      </c>
+      <c r="H92">
+        <v>-0.009046664839013629</v>
+      </c>
+      <c r="I92">
+        <v>0.1244029542365921</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.267975750646195</v>
+        <v>0.3248156061916081</v>
       </c>
       <c r="C93">
-        <v>-0.2584776617762241</v>
+        <v>-0.1407516895785973</v>
       </c>
       <c r="D93">
-        <v>0.01615751564081426</v>
+        <v>-0.01088610365987749</v>
       </c>
       <c r="E93">
-        <v>-0.002019179267783808</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.03356458737866451</v>
+      </c>
+      <c r="F93">
+        <v>-0.01040670792246996</v>
+      </c>
+      <c r="G93">
+        <v>0.02827652905015838</v>
+      </c>
+      <c r="H93">
+        <v>0.02120608468356378</v>
+      </c>
+      <c r="I93">
+        <v>-0.1006101905745684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3134902825405579</v>
+        <v>0.1749816088091757</v>
       </c>
       <c r="C94">
-        <v>0.255985415066067</v>
+        <v>0.3480932161691955</v>
       </c>
       <c r="D94">
-        <v>-0.3585591307264297</v>
+        <v>-0.3552172987710475</v>
       </c>
       <c r="E94">
-        <v>-0.1433864468189398</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.0552716957916177</v>
+      </c>
+      <c r="F94">
+        <v>0.1056437409913641</v>
+      </c>
+      <c r="G94">
+        <v>-0.2742275559116286</v>
+      </c>
+      <c r="H94">
+        <v>0.1281433500932648</v>
+      </c>
+      <c r="I94">
+        <v>0.4106298743665978</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.03379231583023992</v>
+        <v>0.02960621263834861</v>
       </c>
       <c r="C95">
-        <v>0.03097687817615218</v>
+        <v>0.05952469822338403</v>
       </c>
       <c r="D95">
-        <v>0.09665241670816496</v>
+        <v>0.1236517541125917</v>
       </c>
       <c r="E95">
-        <v>0.1748085816868516</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.2000598229128292</v>
+      </c>
+      <c r="F95">
+        <v>0.1173259042414277</v>
+      </c>
+      <c r="G95">
+        <v>0.1107201663105769</v>
+      </c>
+      <c r="H95">
+        <v>-0.4594554529764415</v>
+      </c>
+      <c r="I95">
+        <v>0.5266758058200263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.0006434476803472067</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>1.75685965848541e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0008276051574144514</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.0007730811860837338</v>
+      </c>
+      <c r="F97">
+        <v>0.001309344928143308</v>
+      </c>
+      <c r="G97">
+        <v>0.0003677829992516151</v>
+      </c>
+      <c r="H97">
+        <v>-0.0005091885044183044</v>
+      </c>
+      <c r="I97">
+        <v>0.0005275653199804107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1538002169579667</v>
+        <v>0.1237073141464421</v>
       </c>
       <c r="C98">
-        <v>0.06844104752538682</v>
+        <v>0.1320729672582856</v>
       </c>
       <c r="D98">
-        <v>0.1204161821179553</v>
+        <v>0.06138409390942727</v>
       </c>
       <c r="E98">
-        <v>-0.2747668279553814</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2824816482884261</v>
+      </c>
+      <c r="F98">
+        <v>0.1606403039702635</v>
+      </c>
+      <c r="G98">
+        <v>0.2550301641003499</v>
+      </c>
+      <c r="H98">
+        <v>0.06340216518652925</v>
+      </c>
+      <c r="I98">
+        <v>0.03585610043646891</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.001586382892309108</v>
+        <v>-0.0002992928760993256</v>
       </c>
       <c r="C101">
-        <v>0.02127230620718702</v>
+        <v>0.02915168317961168</v>
       </c>
       <c r="D101">
-        <v>0.1016446091190454</v>
+        <v>0.100050271029303</v>
       </c>
       <c r="E101">
-        <v>0.02126849950976576</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.03434614855702655</v>
+      </c>
+      <c r="F101">
+        <v>-0.03327958718307964</v>
+      </c>
+      <c r="G101">
+        <v>-0.04868613183273124</v>
+      </c>
+      <c r="H101">
+        <v>-0.1017539011491075</v>
+      </c>
+      <c r="I101">
+        <v>-0.03109319756858233</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1160396891582315</v>
+        <v>0.05163634115406572</v>
       </c>
       <c r="C102">
-        <v>0.1475255818149914</v>
+        <v>0.1526480236773148</v>
       </c>
       <c r="D102">
-        <v>-0.07090674834928651</v>
+        <v>-0.09035666865072792</v>
       </c>
       <c r="E102">
-        <v>-0.02178717447747748</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03021456370357907</v>
+      </c>
+      <c r="F102">
+        <v>0.06755040747618841</v>
+      </c>
+      <c r="G102">
+        <v>0.0004130775122226353</v>
+      </c>
+      <c r="H102">
+        <v>-0.05232280834376854</v>
+      </c>
+      <c r="I102">
+        <v>-0.01463148652651215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
